--- a/DATA/ORIGINAL DATA/US.3.Month.Tresury.Bill.xlsx
+++ b/DATA/ORIGINAL DATA/US.3.Month.Tresury.Bill.xlsx
@@ -2452,7 +2452,10 @@
         <v>3.82622950819672</v>
       </c>
       <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="D69" s="13">
+        <f>AVERAGE(B66:B77)</f>
+        <v>4.07949532737308</v>
+      </c>
       <c r="E69" s="7"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
